--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value589.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value589.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.60471700614496</v>
+        <v>1.08737051486969</v>
       </c>
       <c r="B1">
-        <v>1.729345064387308</v>
+        <v>1.922170877456665</v>
       </c>
       <c r="C1">
-        <v>1.764335823666805</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.302636194035308</v>
+        <v>2.076799631118774</v>
       </c>
       <c r="E1">
-        <v>1.239085475207984</v>
+        <v>1.139383792877197</v>
       </c>
     </row>
   </sheetData>
